--- a/schedule_2021_2.xlsx
+++ b/schedule_2021_2.xlsx
@@ -879,27 +879,23 @@
           <t>8/5:40</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gyöngyösi András</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Kovács Gusztáv Márk</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Ördög Márk</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Barna Dávid</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Biró Levente</t>
+          <t>Siklósi Balázs</t>
         </is>
       </c>
     </row>
@@ -913,16 +909,8 @@
           <t>Gyöngyösi András</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Siklósi Balázs</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Siklósi Balázs</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr"/>
@@ -975,17 +963,17 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hajdu Krisztián</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Paragi Gábor</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
